--- a/Jogos_do_Dia/2024-04-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>League</t>
   </si>
@@ -145,10 +145,13 @@
     <t>Odd_Corners_Under115</t>
   </si>
   <si>
+    <t>Egypt Egyptian Premier League</t>
+  </si>
+  <si>
     <t>Slovenia PrvaLiga</t>
   </si>
   <si>
-    <t>Egypt Egyptian Premier League</t>
+    <t>Brazil Serie A</t>
   </si>
   <si>
     <t>11:00:00</t>
@@ -157,28 +160,37 @@
     <t>14:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>Ceramica Cleopatra</t>
+  </si>
+  <si>
     <t>Domžale</t>
   </si>
   <si>
-    <t>Ceramica Cleopatra</t>
+    <t>Ismaily SC</t>
   </si>
   <si>
     <t>Coca-Cola</t>
   </si>
   <si>
-    <t>Ismaily SC</t>
+    <t>Botafogo</t>
+  </si>
+  <si>
+    <t>Al Ittihad</t>
   </si>
   <si>
     <t>Koper</t>
   </si>
   <si>
-    <t>Al Ittihad</t>
+    <t>Masr</t>
   </si>
   <si>
     <t>Pharco</t>
   </si>
   <si>
-    <t>Masr</t>
+    <t>Atlético GO</t>
   </si>
 </sst>
 </file>
@@ -540,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,127 +697,127 @@
         <v>45400</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G2">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H2">
         <v>2.05</v>
       </c>
       <c r="I2">
-        <v>2.85</v>
+        <v>4.33</v>
       </c>
       <c r="J2">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="K2">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L2">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="M2">
         <v>1.4</v>
       </c>
       <c r="N2">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O2">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P2">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Q2">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R2">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="S2">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="T2">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="U2">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="V2">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="W2">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
       <c r="X2">
         <v>1.25</v>
       </c>
       <c r="Y2">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="Z2">
-        <v>1.07</v>
+        <v>2</v>
       </c>
       <c r="AA2">
-        <v>1.4</v>
+        <v>1.86</v>
       </c>
       <c r="AB2">
+        <v>1.76</v>
+      </c>
+      <c r="AC2">
+        <v>1.28</v>
+      </c>
+      <c r="AD2">
+        <v>3.04</v>
+      </c>
+      <c r="AE2">
+        <v>1.46</v>
+      </c>
+      <c r="AF2">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AG2">
+        <v>3.2</v>
+      </c>
+      <c r="AH2">
+        <v>1.28</v>
+      </c>
+      <c r="AI2">
+        <v>3.2</v>
+      </c>
+      <c r="AJ2">
+        <v>1.56</v>
+      </c>
+      <c r="AK2">
+        <v>2.38</v>
+      </c>
+      <c r="AL2">
+        <v>1.94</v>
+      </c>
+      <c r="AM2">
+        <v>1.85</v>
+      </c>
+      <c r="AN2">
+        <v>2.49</v>
+      </c>
+      <c r="AO2">
         <v>1.52</v>
       </c>
-      <c r="AC2">
-        <v>1.48</v>
-      </c>
-      <c r="AD2">
-        <v>3</v>
-      </c>
-      <c r="AE2">
-        <v>2.07</v>
-      </c>
-      <c r="AF2">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG2">
-        <v>1.92</v>
-      </c>
-      <c r="AH2">
-        <v>1.21</v>
-      </c>
-      <c r="AI2">
-        <v>3.9</v>
-      </c>
-      <c r="AJ2">
-        <v>1.41</v>
-      </c>
-      <c r="AK2">
-        <v>2.7</v>
-      </c>
-      <c r="AL2">
-        <v>1.64</v>
-      </c>
-      <c r="AM2">
-        <v>2.07</v>
-      </c>
-      <c r="AN2">
-        <v>2.07</v>
-      </c>
-      <c r="AO2">
-        <v>1.64</v>
-      </c>
       <c r="AP2">
-        <v>2.6</v>
+        <v>3.28</v>
       </c>
       <c r="AQ2">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -816,389 +828,520 @@
         <v>45400</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G3">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H3">
         <v>2.05</v>
       </c>
       <c r="I3">
-        <v>4.33</v>
+        <v>2.85</v>
       </c>
       <c r="J3">
-        <v>1.77</v>
+        <v>3.1</v>
       </c>
       <c r="K3">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L3">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="M3">
         <v>1.4</v>
       </c>
       <c r="N3">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O3">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P3">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Q3">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="S3">
-        <v>1.91</v>
+        <v>1.76</v>
       </c>
       <c r="T3">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="V3">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W3">
-        <v>1.17</v>
+        <v>1.53</v>
       </c>
       <c r="X3">
         <v>1.25</v>
       </c>
       <c r="Y3">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>1.07</v>
       </c>
       <c r="AA3">
-        <v>1.86</v>
+        <v>1.4</v>
       </c>
       <c r="AB3">
-        <v>1.76</v>
+        <v>1.52</v>
       </c>
       <c r="AC3">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AD3">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="AE3">
-        <v>1.46</v>
+        <v>2.07</v>
       </c>
       <c r="AF3">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG3">
-        <v>3.2</v>
+        <v>1.92</v>
       </c>
       <c r="AH3">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AI3">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="AJ3">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="AK3">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="AL3">
-        <v>1.94</v>
+        <v>1.64</v>
       </c>
       <c r="AM3">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="AN3">
-        <v>2.49</v>
+        <v>2.07</v>
       </c>
       <c r="AO3">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="AP3">
-        <v>3.28</v>
+        <v>2.6</v>
       </c>
       <c r="AQ3">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="4" spans="1:43">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2">
         <v>45400</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G4">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="H4">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="I4">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="J4">
-        <v>1.88</v>
+        <v>2.45</v>
       </c>
       <c r="K4">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="L4">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="N4">
-        <v>2.35</v>
+        <v>2.53</v>
       </c>
       <c r="O4">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P4">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q4">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="R4">
-        <v>2.37</v>
+        <v>2.62</v>
       </c>
       <c r="S4">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T4">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="U4">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="W4">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="X4">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="Y4">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="Z4">
-        <v>0.86</v>
+        <v>1.63</v>
       </c>
       <c r="AA4">
-        <v>0.75</v>
+        <v>1.56</v>
       </c>
       <c r="AB4">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="AC4">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AD4">
-        <v>2.43</v>
+        <v>2.69</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="1:43">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2">
         <v>45400</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G5">
+        <v>2.75</v>
+      </c>
+      <c r="H5">
+        <v>1.91</v>
+      </c>
+      <c r="I5">
+        <v>4.75</v>
+      </c>
+      <c r="J5">
+        <v>1.9</v>
+      </c>
+      <c r="K5">
+        <v>3.05</v>
+      </c>
+      <c r="L5">
+        <v>4.2</v>
+      </c>
+      <c r="M5">
+        <v>1.57</v>
+      </c>
+      <c r="N5">
+        <v>2.35</v>
+      </c>
+      <c r="O5">
+        <v>1.1</v>
+      </c>
+      <c r="P5">
+        <v>6.25</v>
+      </c>
+      <c r="Q5">
+        <v>1.52</v>
+      </c>
+      <c r="R5">
+        <v>2.43</v>
+      </c>
+      <c r="S5">
+        <v>2.56</v>
+      </c>
+      <c r="T5">
+        <v>1.45</v>
+      </c>
+      <c r="U5">
+        <v>2.25</v>
+      </c>
+      <c r="V5">
+        <v>1.57</v>
+      </c>
+      <c r="W5">
+        <v>1.18</v>
+      </c>
+      <c r="X5">
+        <v>1.29</v>
+      </c>
+      <c r="Y5">
+        <v>1.67</v>
+      </c>
+      <c r="Z5">
+        <v>0.86</v>
+      </c>
+      <c r="AA5">
+        <v>0.75</v>
+      </c>
+      <c r="AB5">
+        <v>1.15</v>
+      </c>
+      <c r="AC5">
+        <v>1.28</v>
+      </c>
+      <c r="AD5">
+        <v>2.43</v>
+      </c>
+      <c r="AE5">
+        <v>1.58</v>
+      </c>
+      <c r="AF5">
+        <v>7.7</v>
+      </c>
+      <c r="AG5">
+        <v>2.82</v>
+      </c>
+      <c r="AH5">
+        <v>1.36</v>
+      </c>
+      <c r="AI5">
+        <v>2.78</v>
+      </c>
+      <c r="AJ5">
+        <v>1.72</v>
+      </c>
+      <c r="AK5">
+        <v>2.1</v>
+      </c>
+      <c r="AL5">
+        <v>2.18</v>
+      </c>
+      <c r="AM5">
+        <v>1.67</v>
+      </c>
+      <c r="AN5">
+        <v>2.84</v>
+      </c>
+      <c r="AO5">
+        <v>1.35</v>
+      </c>
+      <c r="AP5">
+        <v>3.7</v>
+      </c>
+      <c r="AQ5">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45400</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6">
+        <v>2.2</v>
+      </c>
+      <c r="H6">
+        <v>2.2</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>1.57</v>
+      </c>
+      <c r="K6">
+        <v>3.6</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>1.42</v>
+      </c>
+      <c r="N6">
+        <v>2.62</v>
+      </c>
+      <c r="O6">
+        <v>1.07</v>
+      </c>
+      <c r="P6">
+        <v>8</v>
+      </c>
+      <c r="Q6">
+        <v>1.36</v>
+      </c>
+      <c r="R6">
         <v>3.1</v>
       </c>
-      <c r="H5">
+      <c r="S6">
+        <v>2.05</v>
+      </c>
+      <c r="T6">
+        <v>1.7</v>
+      </c>
+      <c r="U6">
         <v>1.95</v>
       </c>
-      <c r="I5">
-        <v>3.6</v>
-      </c>
-      <c r="J5">
+      <c r="V6">
+        <v>1.8</v>
+      </c>
+      <c r="W6">
+        <v>1.1</v>
+      </c>
+      <c r="X6">
+        <v>1.2</v>
+      </c>
+      <c r="Y6">
         <v>2.45</v>
       </c>
-      <c r="K5">
-        <v>2.8</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>1.5</v>
-      </c>
-      <c r="N5">
-        <v>2.53</v>
-      </c>
-      <c r="O5">
-        <v>1.09</v>
-      </c>
-      <c r="P5">
-        <v>6.5</v>
-      </c>
-      <c r="Q5">
-        <v>1.45</v>
-      </c>
-      <c r="R5">
-        <v>2.62</v>
-      </c>
-      <c r="S5">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1.54</v>
+      </c>
+      <c r="AF6">
+        <v>8</v>
+      </c>
+      <c r="AG6">
+        <v>2.95</v>
+      </c>
+      <c r="AH6">
+        <v>1.25</v>
+      </c>
+      <c r="AI6">
+        <v>3.3</v>
+      </c>
+      <c r="AJ6">
+        <v>1.47</v>
+      </c>
+      <c r="AK6">
+        <v>2.4</v>
+      </c>
+      <c r="AL6">
         <v>2.38</v>
       </c>
-      <c r="T5">
+      <c r="AM6">
+        <v>1.87</v>
+      </c>
+      <c r="AN6">
+        <v>2.28</v>
+      </c>
+      <c r="AO6">
         <v>1.53</v>
       </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>1.73</v>
-      </c>
-      <c r="W5">
-        <v>1.32</v>
-      </c>
-      <c r="X5">
-        <v>1.31</v>
-      </c>
-      <c r="Y5">
-        <v>1.43</v>
-      </c>
-      <c r="Z5">
-        <v>1.63</v>
-      </c>
-      <c r="AA5">
-        <v>1.56</v>
-      </c>
-      <c r="AB5">
-        <v>1.42</v>
-      </c>
-      <c r="AC5">
-        <v>1.27</v>
-      </c>
-      <c r="AD5">
-        <v>2.69</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
+      <c r="AP6">
+        <v>2.95</v>
+      </c>
+      <c r="AQ6">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2024-04-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -145,12 +145,12 @@
     <t>Odd_Corners_Under115</t>
   </si>
   <si>
+    <t>Slovenia PrvaLiga</t>
+  </si>
+  <si>
     <t>Egypt Egyptian Premier League</t>
   </si>
   <si>
-    <t>Slovenia PrvaLiga</t>
-  </si>
-  <si>
     <t>Brazil Serie A</t>
   </si>
   <si>
@@ -163,31 +163,31 @@
     <t>21:30:00</t>
   </si>
   <si>
+    <t>Domžale</t>
+  </si>
+  <si>
     <t>Ceramica Cleopatra</t>
   </si>
   <si>
-    <t>Domžale</t>
+    <t>Coca-Cola</t>
   </si>
   <si>
     <t>Ismaily SC</t>
   </si>
   <si>
-    <t>Coca-Cola</t>
-  </si>
-  <si>
     <t>Botafogo</t>
   </si>
   <si>
+    <t>Koper</t>
+  </si>
+  <si>
     <t>Al Ittihad</t>
   </si>
   <si>
-    <t>Koper</t>
+    <t>Pharco</t>
   </si>
   <si>
     <t>Masr</t>
-  </si>
-  <si>
-    <t>Pharco</t>
   </si>
   <si>
     <t>Atlético GO</t>
@@ -700,7 +700,7 @@
         <v>46</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>49</v>
@@ -709,115 +709,115 @@
         <v>54</v>
       </c>
       <c r="G2">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H2">
         <v>2.05</v>
       </c>
       <c r="I2">
-        <v>4.33</v>
+        <v>2.85</v>
       </c>
       <c r="J2">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="K2">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="M2">
         <v>1.4</v>
       </c>
       <c r="N2">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O2">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Q2">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R2">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="S2">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="T2">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="U2">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="V2">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="W2">
-        <v>1.17</v>
+        <v>1.53</v>
       </c>
       <c r="X2">
         <v>1.25</v>
       </c>
       <c r="Y2">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="Z2">
-        <v>2</v>
+        <v>1.19</v>
       </c>
       <c r="AA2">
-        <v>1.86</v>
+        <v>1.31</v>
       </c>
       <c r="AB2">
-        <v>1.76</v>
+        <v>1.52</v>
       </c>
       <c r="AC2">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AD2">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="AE2">
-        <v>1.46</v>
+        <v>2.07</v>
       </c>
       <c r="AF2">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG2">
-        <v>3.2</v>
+        <v>1.92</v>
       </c>
       <c r="AH2">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AI2">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="AJ2">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="AK2">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="AL2">
-        <v>1.94</v>
+        <v>1.64</v>
       </c>
       <c r="AM2">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="AN2">
-        <v>2.49</v>
+        <v>2.07</v>
       </c>
       <c r="AO2">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="AP2">
-        <v>3.28</v>
+        <v>2.6</v>
       </c>
       <c r="AQ2">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -831,7 +831,7 @@
         <v>46</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>50</v>
@@ -840,120 +840,120 @@
         <v>55</v>
       </c>
       <c r="G3">
-        <v>3.6</v>
+        <v>2.63</v>
       </c>
       <c r="H3">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I3">
-        <v>2.85</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>3.1</v>
+        <v>1.88</v>
       </c>
       <c r="K3">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L3">
-        <v>2.05</v>
+        <v>3.85</v>
       </c>
       <c r="M3">
         <v>1.4</v>
       </c>
       <c r="N3">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O3">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P3">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Q3">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="S3">
-        <v>1.76</v>
+        <v>2.02</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="U3">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="V3">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="W3">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
       <c r="X3">
         <v>1.25</v>
       </c>
       <c r="Y3">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="Z3">
-        <v>1.07</v>
+        <v>1.88</v>
       </c>
       <c r="AA3">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AB3">
+        <v>1.76</v>
+      </c>
+      <c r="AC3">
+        <v>1.28</v>
+      </c>
+      <c r="AD3">
+        <v>3.04</v>
+      </c>
+      <c r="AE3">
+        <v>1.56</v>
+      </c>
+      <c r="AF3">
+        <v>8.1</v>
+      </c>
+      <c r="AG3">
+        <v>2.83</v>
+      </c>
+      <c r="AH3">
+        <v>1.28</v>
+      </c>
+      <c r="AI3">
+        <v>3.2</v>
+      </c>
+      <c r="AJ3">
+        <v>1.56</v>
+      </c>
+      <c r="AK3">
+        <v>2.38</v>
+      </c>
+      <c r="AL3">
+        <v>1.94</v>
+      </c>
+      <c r="AM3">
+        <v>1.85</v>
+      </c>
+      <c r="AN3">
+        <v>2.49</v>
+      </c>
+      <c r="AO3">
         <v>1.52</v>
       </c>
-      <c r="AC3">
-        <v>1.48</v>
-      </c>
-      <c r="AD3">
-        <v>3</v>
-      </c>
-      <c r="AE3">
-        <v>2.07</v>
-      </c>
-      <c r="AF3">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG3">
-        <v>1.92</v>
-      </c>
-      <c r="AH3">
-        <v>1.21</v>
-      </c>
-      <c r="AI3">
-        <v>3.9</v>
-      </c>
-      <c r="AJ3">
-        <v>1.41</v>
-      </c>
-      <c r="AK3">
-        <v>2.7</v>
-      </c>
-      <c r="AL3">
-        <v>1.64</v>
-      </c>
-      <c r="AM3">
-        <v>2.07</v>
-      </c>
-      <c r="AN3">
-        <v>2.07</v>
-      </c>
-      <c r="AO3">
-        <v>1.64</v>
-      </c>
       <c r="AP3">
-        <v>2.6</v>
+        <v>3.28</v>
       </c>
       <c r="AQ3">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="4" spans="1:43">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2">
         <v>45400</v>
@@ -971,120 +971,120 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H4">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="I4">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="J4">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="K4">
         <v>2.8</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M4">
+        <v>1.57</v>
+      </c>
+      <c r="N4">
+        <v>2.35</v>
+      </c>
+      <c r="O4">
+        <v>1.1</v>
+      </c>
+      <c r="P4">
+        <v>6.25</v>
+      </c>
+      <c r="Q4">
         <v>1.5</v>
       </c>
-      <c r="N4">
-        <v>2.53</v>
-      </c>
-      <c r="O4">
-        <v>1.09</v>
-      </c>
-      <c r="P4">
-        <v>6.5</v>
-      </c>
-      <c r="Q4">
-        <v>1.45</v>
-      </c>
       <c r="R4">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="S4">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T4">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V4">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W4">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="X4">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="Y4">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="Z4">
-        <v>1.63</v>
+        <v>1.13</v>
       </c>
       <c r="AA4">
-        <v>1.56</v>
+        <v>0.67</v>
       </c>
       <c r="AB4">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="AC4">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AD4">
-        <v>2.69</v>
+        <v>2.43</v>
       </c>
       <c r="AE4">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="AF4">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AG4">
-        <v>2.64</v>
+        <v>2.81</v>
       </c>
       <c r="AH4">
+        <v>1.36</v>
+      </c>
+      <c r="AI4">
+        <v>2.78</v>
+      </c>
+      <c r="AJ4">
+        <v>1.72</v>
+      </c>
+      <c r="AK4">
+        <v>2.1</v>
+      </c>
+      <c r="AL4">
+        <v>2.18</v>
+      </c>
+      <c r="AM4">
+        <v>1.67</v>
+      </c>
+      <c r="AN4">
+        <v>2.84</v>
+      </c>
+      <c r="AO4">
+        <v>1.35</v>
+      </c>
+      <c r="AP4">
+        <v>3.7</v>
+      </c>
+      <c r="AQ4">
         <v>1.23</v>
-      </c>
-      <c r="AI4">
-        <v>3.56</v>
-      </c>
-      <c r="AJ4">
-        <v>1.49</v>
-      </c>
-      <c r="AK4">
-        <v>2.55</v>
-      </c>
-      <c r="AL4">
-        <v>1.83</v>
-      </c>
-      <c r="AM4">
-        <v>1.97</v>
-      </c>
-      <c r="AN4">
-        <v>2.3</v>
-      </c>
-      <c r="AO4">
-        <v>1.6</v>
-      </c>
-      <c r="AP4">
-        <v>3.08</v>
-      </c>
-      <c r="AQ4">
-        <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="1:43">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2">
         <v>45400</v>
@@ -1102,115 +1102,115 @@
         <v>57</v>
       </c>
       <c r="G5">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="H5">
         <v>1.91</v>
       </c>
       <c r="I5">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="J5">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="K5">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="L5">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="N5">
-        <v>2.35</v>
+        <v>2.53</v>
       </c>
       <c r="O5">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P5">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q5">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="R5">
-        <v>2.43</v>
+        <v>2.62</v>
       </c>
       <c r="S5">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="T5">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="U5">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V5">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W5">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="X5">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="Y5">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="Z5">
-        <v>0.86</v>
+        <v>1.44</v>
       </c>
       <c r="AA5">
-        <v>0.75</v>
+        <v>1.7</v>
       </c>
       <c r="AB5">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="AC5">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AD5">
-        <v>2.43</v>
+        <v>2.69</v>
       </c>
       <c r="AE5">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="AF5">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AG5">
-        <v>2.82</v>
+        <v>2.64</v>
       </c>
       <c r="AH5">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AI5">
-        <v>2.78</v>
+        <v>3.56</v>
       </c>
       <c r="AJ5">
-        <v>1.72</v>
+        <v>1.49</v>
       </c>
       <c r="AK5">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="AL5">
-        <v>2.18</v>
+        <v>1.83</v>
       </c>
       <c r="AM5">
-        <v>1.67</v>
+        <v>1.97</v>
       </c>
       <c r="AN5">
-        <v>2.84</v>
+        <v>2.3</v>
       </c>
       <c r="AO5">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="AP5">
-        <v>3.7</v>
+        <v>3.08</v>
       </c>
       <c r="AQ5">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1233,22 +1233,22 @@
         <v>58</v>
       </c>
       <c r="G6">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H6">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="K6">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>6.9</v>
       </c>
       <c r="M6">
         <v>1.42</v>
@@ -1269,10 +1269,10 @@
         <v>3.1</v>
       </c>
       <c r="S6">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="T6">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="U6">
         <v>1.95</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="AF6">
         <v>8</v>
       </c>
       <c r="AG6">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="AH6">
         <v>1.25</v>
